--- a/target/test-classes/yearOnYearData.xlsx
+++ b/target/test-classes/yearOnYearData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -46,6 +46,195 @@
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t>Loan Paid To Date</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>₹ 72,009</t>
+  </si>
+  <si>
+    <t>₹ 97,990</t>
+  </si>
+  <si>
+    <t>₹ 25,025</t>
+  </si>
+  <si>
+    <t>₹ 1,95,024</t>
+  </si>
+  <si>
+    <t>₹ 11,47,991</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>₹ 85,608</t>
+  </si>
+  <si>
+    <t>₹ 99,845</t>
+  </si>
+  <si>
+    <t>₹ 27,300</t>
+  </si>
+  <si>
+    <t>₹ 2,12,753</t>
+  </si>
+  <si>
+    <t>₹ 10,62,383</t>
+  </si>
+  <si>
+    <t>12.92%</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>₹ 93,639</t>
+  </si>
+  <si>
+    <t>₹ 91,814</t>
+  </si>
+  <si>
+    <t>₹ 9,68,744</t>
+  </si>
+  <si>
+    <t>20.59%</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>₹ 1,02,423</t>
+  </si>
+  <si>
+    <t>₹ 83,030</t>
+  </si>
+  <si>
+    <t>₹ 8,66,321</t>
+  </si>
+  <si>
+    <t>28.99%</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>₹ 1,12,031</t>
+  </si>
+  <si>
+    <t>₹ 73,422</t>
+  </si>
+  <si>
+    <t>₹ 7,54,290</t>
+  </si>
+  <si>
+    <t>38.17%</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>₹ 1,22,540</t>
+  </si>
+  <si>
+    <t>₹ 62,913</t>
+  </si>
+  <si>
+    <t>₹ 6,31,750</t>
+  </si>
+  <si>
+    <t>48.22%</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>₹ 1,34,035</t>
+  </si>
+  <si>
+    <t>₹ 51,418</t>
+  </si>
+  <si>
+    <t>₹ 4,97,714</t>
+  </si>
+  <si>
+    <t>59.2%</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>₹ 1,46,609</t>
+  </si>
+  <si>
+    <t>₹ 38,845</t>
+  </si>
+  <si>
+    <t>₹ 3,51,106</t>
+  </si>
+  <si>
+    <t>71.22%</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>₹ 1,60,362</t>
+  </si>
+  <si>
+    <t>₹ 25,092</t>
+  </si>
+  <si>
+    <t>₹ 1,90,744</t>
+  </si>
+  <si>
+    <t>84.37%</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>₹ 1,75,405</t>
+  </si>
+  <si>
+    <t>₹ 10,049</t>
+  </si>
+  <si>
+    <t>₹ 15,339</t>
+  </si>
+  <si>
+    <t>98.74%</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>₹ 115</t>
+  </si>
+  <si>
+    <t>₹ 2,275</t>
+  </si>
+  <si>
+    <t>₹ 17,729</t>
+  </si>
+  <si>
+    <t>₹ 0</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>₹ 30,525</t>
+  </si>
+  <si>
+    <t>₹ 2,00,524</t>
   </si>
 </sst>
 </file>
@@ -364,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H12"/>
@@ -399,6 +588,262 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
